--- a/SeleniumFramework/excel/data.xlsx
+++ b/SeleniumFramework/excel/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajat/Documents/workspace/SeleniumFramework/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajat/Documents/SD Auto/Rajat Frameowrk/SeleniumFramework/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BBD07-C701-0A45-8272-4D35DB73C5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67813776-4A2D-1041-9509-30EB7C39886C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
